--- a/data/trans_bre/P1418-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1418-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.98466404153085</v>
+        <v>1.335622762132642</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.084938969080723</v>
+        <v>6.084701399238135</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.607913581564659</v>
+        <v>4.467939950912498</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.1214848349321</v>
+        <v>1.084986607034081</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08595252588101797</v>
+        <v>0.1086322983192988</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.313874020271081</v>
+        <v>1.397702035806948</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.270260727003516</v>
+        <v>1.163699862453323</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1032650252009942</v>
+        <v>0.09078726515464959</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.568447177450313</v>
+        <v>8.149429546953426</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.47202301274217</v>
+        <v>10.4258464635729</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.551648539274233</v>
+        <v>8.567955780353639</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.84057018346922</v>
+        <v>7.84737240254452</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9099951440750742</v>
+        <v>0.9520028113147015</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.883126046781542</v>
+        <v>4.267683504320354</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.163416891587343</v>
+        <v>4.054207551490337</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.165842577282968</v>
+        <v>1.166588797301302</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>4.306115084020419</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4.993200253284659</v>
+        <v>4.993200253284657</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6412889797881195</v>
@@ -749,7 +749,7 @@
         <v>1.670747403915766</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.465442627549923</v>
+        <v>1.465442627549922</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.361085564923292</v>
+        <v>1.327870989494477</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.413779409996217</v>
+        <v>4.722968523454804</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.426939913841304</v>
+        <v>2.325160747001031</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.285529876827802</v>
+        <v>3.316930925022769</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1953497559829633</v>
+        <v>0.1756868772527027</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8884030677361472</v>
+        <v>1.043368377033411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6924086263112904</v>
+        <v>0.6688668744683981</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7786757631045949</v>
+        <v>0.7755353291643543</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.965371836246455</v>
+        <v>5.901657913008017</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.89484944258021</v>
+        <v>9.205160236926211</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.305975142999393</v>
+        <v>6.50891258888768</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.609122390759217</v>
+        <v>6.599402473874978</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.272443913664949</v>
+        <v>1.282344286603783</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.293625629190999</v>
+        <v>3.612612083211182</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.319751834763309</v>
+        <v>3.550441610105921</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.402935542797373</v>
+        <v>2.562485083294838</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.448355852677361</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.31215320026337</v>
+        <v>3.312153200263367</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.984155468658632</v>
@@ -849,7 +849,7 @@
         <v>2.127677153014089</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.8908267686343405</v>
+        <v>0.8908267686343397</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.96778430178851</v>
+        <v>3.15008640157361</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.528946561596166</v>
+        <v>2.640813968016899</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.435626960541432</v>
+        <v>2.459079513775298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.558839025414355</v>
+        <v>1.723179262870094</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8742338179323556</v>
+        <v>0.9395789368526837</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6063457329890951</v>
+        <v>0.5698590416371042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.794678451228868</v>
+        <v>0.8245876547767831</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3346464979601745</v>
+        <v>0.3489140177754189</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.117627417346782</v>
+        <v>7.033271265878162</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.943669045720842</v>
+        <v>7.079076660090726</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.542979130681924</v>
+        <v>7.010550110967236</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.902978044451829</v>
+        <v>5.035079627957384</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.820417517195262</v>
+        <v>3.835340377935514</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.794212906497489</v>
+        <v>2.837940071378952</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.336628740842349</v>
+        <v>4.875414022411539</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.697772500281109</v>
+        <v>1.723409203877494</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.715982316066483</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.615900589112523</v>
+        <v>4.615900589112524</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3871015961358884</v>
@@ -949,7 +949,7 @@
         <v>1.156393640800031</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.292787442337773</v>
+        <v>1.292787442337774</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.337098998617317</v>
+        <v>-1.380552501695958</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.832157250200135</v>
+        <v>3.124986302694083</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.02027006269004274</v>
+        <v>-0.07742559573234362</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.750383778942638</v>
+        <v>2.954550955838166</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2485940194250317</v>
+        <v>-0.2411076505634708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9483175437356675</v>
+        <v>0.9629095631088265</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.196255527098403</v>
+        <v>-0.2057829377899255</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5583956336867127</v>
+        <v>0.680120264824034</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.63882046346793</v>
+        <v>5.337832815091051</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.955736384557571</v>
+        <v>9.146452083345338</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.276345460727017</v>
+        <v>4.136287385959807</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.574576447480715</v>
+        <v>6.436634766035393</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.526384609885958</v>
+        <v>1.454349732773259</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8.409510654030136</v>
+        <v>8.623938685944555</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6.011176730648308</v>
+        <v>4.894955721545261</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.227708651606002</v>
+        <v>2.370072729707354</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.447731250738459</v>
+        <v>3.554372480383738</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.523292673734292</v>
+        <v>5.424104356445954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.789579543751349</v>
+        <v>3.736517649823528</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.497928142710599</v>
+        <v>3.407770760586879</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5735758968541477</v>
+        <v>0.6121607927332392</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.518990442109127</v>
+        <v>1.495890043812537</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.366726073750735</v>
+        <v>1.347945253041598</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.7224158426596194</v>
+        <v>0.7317979592691958</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.951638806114196</v>
+        <v>6.137586984238633</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.848985787755283</v>
+        <v>7.753795524457464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.881346060559678</v>
+        <v>5.937103714009552</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.468177890555563</v>
+        <v>5.362794991819982</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.240644028366364</v>
+        <v>1.303632487558717</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.90851641331034</v>
+        <v>2.82395952931625</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.912025642688037</v>
+        <v>2.957867382381619</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.437687572723406</v>
+        <v>1.391269386920774</v>
       </c>
     </row>
     <row r="19">
